--- a/Table/Data Used.xlsx
+++ b/Table/Data Used.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Islam\OneDrive\Desktop\Skripsi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Razel\Documents\GitHub\Skripsi\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A030017-306C-4983-A577-5D5F721C8CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098DD2A1-F6B8-46F3-A868-8E0EE179855A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8207FE52-BDB3-42E2-AC05-4702235E779B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8207FE52-BDB3-42E2-AC05-4702235E779B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>Twitter</t>
   </si>
@@ -108,42 +108,6 @@
     <t>Bitcoin</t>
   </si>
   <si>
-    <t>Open Time</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Close Time</t>
-  </si>
-  <si>
-    <t>Quote Asses Volume</t>
-  </si>
-  <si>
-    <t>Number of Trades</t>
-  </si>
-  <si>
-    <t>Taker Buy Base Asset Volume</t>
-  </si>
-  <si>
-    <t>Taker Buy Quote Asset Volume</t>
-  </si>
-  <si>
-    <t>Ignore</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>Google Trends</t>
   </si>
   <si>
@@ -154,6 +118,15 @@
   </si>
   <si>
     <t>✓</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>market_caps</t>
+  </si>
+  <si>
+    <t>volumes</t>
   </si>
 </sst>
 </file>
@@ -290,7 +263,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -634,23 +607,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C937802-6AFD-4B83-BF8E-8B407C81224B}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
-    <col min="2" max="2" width="2.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
-    <col min="4" max="4" width="2.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7265625" customWidth="1"/>
-    <col min="6" max="6" width="2.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" customWidth="1"/>
-    <col min="8" max="8" width="2.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -664,284 +637,248 @@
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="1"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="1"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="1"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="1"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="1"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
